--- a/PizzaShop/Docs/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software-systems-verification-and-validation\PizzaShop\Docs\Lab01\CheckListsAll\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F7D85-FDC0-42AC-AF62-FD8388970BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +130,167 @@
   </si>
   <si>
     <t>Effort to perform dynamic code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Ioana Chelaru</t>
+  </si>
+  <si>
+    <t>Florina Carbune</t>
+  </si>
+  <si>
+    <t>Paul Damsa</t>
+  </si>
+  <si>
+    <t>15.03.2020</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>lipsesc informatii despre ingrediente si gramaj</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/1, 1/4</t>
+  </si>
+  <si>
+    <t>nu se specifica utilizatorul principal al aplicatiei: clientul sau chelnerul; lipseste numarul mesei pentru o comada oarecare: chelnerul nu va sti la ce masa sa serveasca comanda</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>comanda trebuie preluata de chelner, nu de pizzar</t>
+  </si>
+  <si>
+    <t>Rolurile nu sunt bine definite, nu exista o separare clara</t>
+  </si>
+  <si>
+    <t>Clientul nu primeste un total de plata, o nota de plata</t>
+  </si>
+  <si>
+    <t>Nu exista o autentificare initiala pentru client, chelner si pizzar; Nu este specificata ora de inchidere a restaurantului</t>
+  </si>
+  <si>
+    <t>Ar trebui sa se poata elibera o masa si in cazul in care comanda nu a fost inca facuta</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>Ioana Chelau</t>
+  </si>
+  <si>
+    <t>0.45 h</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Diagrama e prea incarcata, neclara din cauza abuzului de relatii</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,78 +455,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +541,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +625,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,105 +869,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="24"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,69 +997,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -848,7 +1110,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -857,7 +1119,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -866,7 +1128,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -875,7 +1137,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -884,7 +1146,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +1155,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +1164,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +1173,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,15 +1182,17 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -945,104 +1209,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,96 +1336,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1456,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1465,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1474,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1483,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1492,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1501,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1510,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,105 +1535,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,114 +1663,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1803,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1812,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1821,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1830,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1839,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1848,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1857,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1866,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1875,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1568,85 +1910,85 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +2005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +2014,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +2024,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +2034,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +2044,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +2054,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +2064,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +2074,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +2084,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +2094,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +2104,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +2114,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +2124,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +2134,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +2144,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +2154,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +2164,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +2174,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +2184,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +2194,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2204,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +2214,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/PizzaShop/Docs/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software-systems-verification-and-validation\PizzaShop\Docs\Lab01\CheckListsAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F7D85-FDC0-42AC-AF62-FD8388970BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0BC7E8-2F23-421F-8F51-D77A6C276355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Numele si prenumele</t>
   </si>
   <si>
-    <t>Effort to perform dynamic code analysis (hours):</t>
-  </si>
-  <si>
     <t>Ioana Chelaru</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Ioana Chelau</t>
   </si>
   <si>
-    <t>0.45 h</t>
-  </si>
-  <si>
     <t>A01</t>
   </si>
   <si>
@@ -271,19 +265,170 @@
   </si>
   <si>
     <t>C12</t>
+  </si>
+  <si>
+    <t>17.03.2020</t>
+  </si>
+  <si>
+    <t>PaymentAlert si PaymentOperation trebuie sa se afle in pachectul gui, nu in service</t>
+  </si>
+  <si>
+    <t>Arhitectura acopera toate cerintele</t>
+  </si>
+  <si>
+    <t>0.25 h</t>
+  </si>
+  <si>
+    <t>0.35 h</t>
+  </si>
+  <si>
+    <t>Da, clasa PaymentAlert implementeaza toate operatiile interfetei aferente</t>
+  </si>
+  <si>
+    <t>Nu exista clase de erori specific definite, desi ele sunt necesare; ex: LeavingWithoutPayingError</t>
+  </si>
+  <si>
+    <t>Da, ex: Model-view-controller, Observer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denumirile obiectelor puteau fi mai clare; ex: service-&gt; pizzaService, etc. </t>
+  </si>
+  <si>
+    <t>PizzaRepository sau MenuRepository ar trebui sa adopte o metoda deleteItem</t>
+  </si>
+  <si>
+    <t>Nu exista nume de roluri, diagrama este incompleta</t>
+  </si>
+  <si>
+    <t>Din model lipsesc clasele Order si Pizza</t>
+  </si>
+  <si>
+    <t>Fara erori</t>
+  </si>
+  <si>
+    <t>Ar trebui sa fie vizibila lista comenzii inainte de a fi plasata; Nu exista o logica implemetata in cazuri de exceptie</t>
+  </si>
+  <si>
+    <t>PizzaService, 33</t>
+  </si>
+  <si>
+    <t>bad function usage</t>
+  </si>
+  <si>
+    <t>l.size()==0</t>
+  </si>
+  <si>
+    <t>l.isEmpty()</t>
+  </si>
+  <si>
+    <t>PaymentRepository, 39, 77, etc.</t>
+  </si>
+  <si>
+    <t>e.printStackTrace();</t>
+  </si>
+  <si>
+    <t>Use a logger to log this exception.</t>
+  </si>
+  <si>
+    <t>Logger.getLogger(e.getMessage());</t>
+  </si>
+  <si>
+    <t>Combine this catch with the one at line 36, which has the same body</t>
+  </si>
+  <si>
+    <t>PaymentRepository, 36</t>
+  </si>
+  <si>
+    <t>catch (FileNotFoundException e) {
+            Logger.getLogger(e.getMessage());
+        } catch (IOException e) {
+            Logger.getLogger(e.getMessage());
+        }</t>
+  </si>
+  <si>
+    <t>catch (IOException e) {
+            Logger.getLogger(e.getMessage());
+        }</t>
+  </si>
+  <si>
+    <t>PaymentRepository, 64</t>
+  </si>
+  <si>
+    <t>Use try-with-resources or close this "BufferedWriter" in a "finally" clause</t>
+  </si>
+  <si>
+    <t>try {
+            bw = new BufferedWriter(new FileWriter(file));
+            for (Payment p:paymentList) {
+                System.out.println(p.toString());
+                bw.write(p.toString());
+                bw.newLine();
+            }
+            bw.close();
+        } catch (IOException e) {
+            Logger.getLogger(e.getMessage());
+        }</t>
+  </si>
+  <si>
+    <t>try (BufferedWriter bw = new BufferedWriter(new FileWriter(file))) {
+            for (Payment p : paymentList) {
+                System.out.println(p.toString());
+                bw.write(p.toString());
+                bw.newLine();
+            }
+        } catch (IOException e) {
+            Logger.getLogger(e.getMessage());
+        }</t>
+  </si>
+  <si>
+    <t>Rename this constant name to match the regular expression '^[A-Z][A-Z0-9]*(_[A-Z0-9]+)*$'.</t>
+  </si>
+  <si>
+    <t>PaymentType, 4</t>
+  </si>
+  <si>
+    <t>Cash, Card</t>
+  </si>
+  <si>
+    <t>CASH, CARD</t>
+  </si>
+  <si>
+    <t>SonarLint: Make this anonymous inner class a lambda</t>
+  </si>
+  <si>
+    <t>1.5 h</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours): 1 h</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 116</t>
+  </si>
+  <si>
+    <t>orderTable.getSelectionModel().selectedItemProperty().addListener(new ChangeListener&lt;MenuDataModel&gt;() {</t>
+  </si>
+  <si>
+    <t>Schimbarea nu se incadra in timpul alocat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,82 +600,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,8 +1022,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,19 +1043,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -921,8 +1068,8 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>33</v>
+      <c r="I3" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -932,15 +1079,15 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+      <c r="I4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -950,15 +1097,15 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>35</v>
+      <c r="I5" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -969,19 +1116,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1002,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1017,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1032,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1047,13 +1194,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1062,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1077,13 +1224,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1092,13 +1239,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1191,7 +1338,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,19 +1382,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1260,8 +1407,8 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>34</v>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -1271,15 +1418,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>55</v>
+      <c r="I4" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -1289,15 +1436,15 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>35</v>
+      <c r="I5" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -1308,19 +1455,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1341,23 +1488,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -1365,32 +1514,38 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -1398,43 +1553,51 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1442,10 +1605,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1518,7 +1683,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1541,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,19 +1729,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1587,8 +1754,8 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>35</v>
+      <c r="I3" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -1598,15 +1765,15 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="35"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
+      <c r="I4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -1616,15 +1783,15 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="37"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>33</v>
+      <c r="I5" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -1635,19 +1802,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1663,15 +1830,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -1679,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -1690,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
@@ -1701,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1712,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1723,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1734,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1745,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1756,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1767,10 +1936,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1778,7 +1949,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1789,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
@@ -1883,7 +2054,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1906,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,19 +2101,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1953,40 +2126,56 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -2009,60 +2198,108 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -2211,18 +2448,23 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
+      <c r="F31" s="25" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
